--- a/Data/TorontoPerformanceAnalysisAndPlayerSelection.xlsx
+++ b/Data/TorontoPerformanceAnalysisAndPlayerSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McMaster\DAT205\Capstone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC7B32F-D2E0-4386-A7D2-72AF9BCB3224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B6733-48B6-405B-8EBF-425F1CD13E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27E99213-EED9-452E-962F-388AA58D1AF1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>MIN</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Curry</t>
   </si>
   <si>
-    <t>Bottom Toronto Players from 2014-2020 based on average</t>
-  </si>
-  <si>
     <t>Boucher</t>
   </si>
   <si>
@@ -184,6 +181,42 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Moreland</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Landry</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Sullinger</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Bottom Toronto Players from 2014-2020 based on average with AND condition(low performance for PER, PIE and PLUS MINUS)</t>
+  </si>
+  <si>
+    <t>Bottom Toronto Players from 2014-2020 based on average with OR condition(low performance for PLUS MINUS,PIE,PER in ascending order)</t>
   </si>
 </sst>
 </file>
@@ -262,10 +295,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -582,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1CB62-7C81-4F75-AB5C-EFEB1FCFD9C9}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="A26" sqref="A26:AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,35 +631,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -792,35 +825,35 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K8" s="4" t="s">
@@ -856,7 +889,7 @@
       <c r="O9">
         <v>25.896179</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>26877960</v>
       </c>
     </row>
@@ -876,7 +909,7 @@
       <c r="O10">
         <v>18.081707000000002</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>13342230</v>
       </c>
     </row>
@@ -896,7 +929,7 @@
       <c r="O11">
         <v>27.988869999999999</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>17388440</v>
       </c>
     </row>
@@ -916,7 +949,7 @@
       <c r="O12">
         <v>29.517941</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>24896990</v>
       </c>
     </row>
@@ -936,7 +969,7 @@
       <c r="O13">
         <v>20.167702999999999</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>14392090</v>
       </c>
     </row>
@@ -956,40 +989,40 @@
       <c r="O14">
         <v>30.271687</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>20660600</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K19" s="4" t="s">
@@ -1014,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>0.75757600000000003</v>
@@ -1025,16 +1058,16 @@
       <c r="O20">
         <v>20.224428</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>1245560</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
         <v>45</v>
-      </c>
-      <c r="L21" t="s">
-        <v>46</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -1045,16 +1078,16 @@
       <c r="O21">
         <v>20.695046999999999</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>46080</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
         <v>47</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1065,21 +1098,153 @@
       <c r="O22">
         <v>37.431452</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P25" s="3"/>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>-4</v>
+      </c>
+      <c r="N27">
+        <v>1.8727830000000001</v>
+      </c>
+      <c r="O27">
+        <v>11.165300999999999</v>
+      </c>
+      <c r="P27">
+        <v>88531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28">
+        <v>-3.1612900000000002</v>
+      </c>
+      <c r="N28">
+        <v>2.661502</v>
+      </c>
+      <c r="O28">
+        <v>6.0245839999999999</v>
+      </c>
+      <c r="P28">
+        <v>487109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29">
+        <v>-3</v>
+      </c>
+      <c r="N29">
+        <v>2.2231070000000002</v>
+      </c>
+      <c r="O29">
+        <v>4.0975720000000004</v>
+      </c>
+      <c r="P29">
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30">
+        <v>-2.6363639999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.92165900000000001</v>
+      </c>
+      <c r="O30">
+        <v>5.1036239999999999</v>
+      </c>
+      <c r="P30">
+        <v>5628000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31">
+        <v>-2.1578949999999999</v>
+      </c>
+      <c r="N31">
+        <v>3.4342969999999999</v>
+      </c>
+      <c r="O31">
+        <v>10.522501</v>
+      </c>
+      <c r="P31" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A26:AA26"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A7:AA7"/>
     <mergeCell ref="K8:L8"/>

--- a/Data/TorontoPerformanceAnalysisAndPlayerSelection.xlsx
+++ b/Data/TorontoPerformanceAnalysisAndPlayerSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McMaster\DAT205\Capstone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B6733-48B6-405B-8EBF-425F1CD13E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8B75C-076E-40BA-8191-E3E14E566A37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27E99213-EED9-452E-962F-388AA58D1AF1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>MIN</t>
   </si>
@@ -165,21 +165,6 @@
     <t>Curry</t>
   </si>
   <si>
-    <t>Boucher</t>
-  </si>
-  <si>
-    <t>Nigel</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Shamorie</t>
-  </si>
-  <si>
-    <t>Ponds</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -213,10 +198,7 @@
     <t>Monroe</t>
   </si>
   <si>
-    <t>Bottom Toronto Players from 2014-2020 based on average with AND condition(low performance for PER, PIE and PLUS MINUS)</t>
-  </si>
-  <si>
-    <t>Bottom Toronto Players from 2014-2020 based on average with OR condition(low performance for PLUS MINUS,PIE,PER in ascending order)</t>
+    <t>Bottom Toronto Players from 2014-2020 based on average</t>
   </si>
 </sst>
 </file>
@@ -615,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1CB62-7C81-4F75-AB5C-EFEB1FCFD9C9}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:AA26"/>
+      <selection activeCell="A18" sqref="A18:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +977,7 @@
     </row>
     <row r="18" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1044,207 +1026,106 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>0.75757600000000003</v>
+        <v>-4</v>
       </c>
       <c r="N20">
-        <v>4.9763539999999997</v>
+        <v>1.8727830000000001</v>
       </c>
       <c r="O20">
-        <v>20.224428</v>
+        <v>11.165300999999999</v>
       </c>
       <c r="P20" s="2">
-        <v>1245560</v>
+        <v>88531</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>-3.1612900000000002</v>
       </c>
       <c r="N21">
-        <v>1.8587359999999999</v>
+        <v>2.661502</v>
       </c>
       <c r="O21">
-        <v>20.695046999999999</v>
-      </c>
-      <c r="P21" s="2">
-        <v>46080</v>
+        <v>6.0245839999999999</v>
+      </c>
+      <c r="P21">
+        <v>487109</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N22">
-        <v>1.778818</v>
+        <v>2.2231070000000002</v>
       </c>
       <c r="O22">
-        <v>37.431452</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>48</v>
+        <v>4.0975720000000004</v>
+      </c>
+      <c r="P22">
+        <v>6250000</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P23" s="2"/>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23">
+        <v>-2.6363639999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.92165900000000001</v>
+      </c>
+      <c r="O23">
+        <v>5.1036239999999999</v>
+      </c>
+      <c r="P23">
+        <v>5628000</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27">
-        <v>-4</v>
-      </c>
-      <c r="N27">
-        <v>1.8727830000000001</v>
-      </c>
-      <c r="O27">
-        <v>11.165300999999999</v>
-      </c>
-      <c r="P27">
-        <v>88531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="M28">
-        <v>-3.1612900000000002</v>
-      </c>
-      <c r="N28">
-        <v>2.661502</v>
-      </c>
-      <c r="O28">
-        <v>6.0245839999999999</v>
-      </c>
-      <c r="P28">
-        <v>487109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
+      <c r="L24" t="s">
         <v>53</v>
       </c>
-      <c r="L29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29">
-        <v>-3</v>
-      </c>
-      <c r="N29">
-        <v>2.2231070000000002</v>
-      </c>
-      <c r="O29">
-        <v>4.0975720000000004</v>
-      </c>
-      <c r="P29">
-        <v>6250000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30">
-        <v>-2.6363639999999999</v>
-      </c>
-      <c r="N30">
-        <v>0.92165900000000001</v>
-      </c>
-      <c r="O30">
-        <v>5.1036239999999999</v>
-      </c>
-      <c r="P30">
-        <v>5628000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31">
+      <c r="M24">
         <v>-2.1578949999999999</v>
       </c>
-      <c r="N31">
+      <c r="N24">
         <v>3.4342969999999999</v>
       </c>
-      <c r="O31">
+      <c r="O24">
         <v>10.522501</v>
       </c>
-      <c r="P31" t="s">
-        <v>48</v>
+      <c r="P24" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A26:AA26"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A7:AA7"/>
     <mergeCell ref="K8:L8"/>
